--- a/Python/resultados/HW_C024_120.xlsx
+++ b/Python/resultados/HW_C024_120.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.109375</v>
+        <v>27.47287206360598</v>
       </c>
       <c r="C2" t="n">
-        <v>30.390625</v>
+        <v>29.39034561146602</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.109375</v>
+        <v>27.48607003812207</v>
       </c>
       <c r="C3" t="n">
-        <v>30.40625</v>
+        <v>29.40452408891105</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.109375</v>
+        <v>27.46750977065397</v>
       </c>
       <c r="C4" t="n">
-        <v>30.390625</v>
+        <v>29.39144744359502</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.125</v>
+        <v>27.47534051550214</v>
       </c>
       <c r="C5" t="n">
-        <v>30.40625</v>
+        <v>29.4204382957688</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.125</v>
+        <v>27.50380778484597</v>
       </c>
       <c r="C6" t="n">
-        <v>30.390625</v>
+        <v>29.38851878481415</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.125</v>
+        <v>27.49199222875973</v>
       </c>
       <c r="C7" t="n">
-        <v>30.375</v>
+        <v>29.38716450881176</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.109375</v>
+        <v>27.48167112512586</v>
       </c>
       <c r="C8" t="n">
-        <v>30.40625</v>
+        <v>29.4073266152364</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +541,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.125</v>
+        <v>27.49890340264041</v>
       </c>
       <c r="C9" t="n">
-        <v>30.421875</v>
+        <v>29.41207740506301</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.109375</v>
+        <v>27.47016823339331</v>
       </c>
       <c r="C10" t="n">
-        <v>30.359375</v>
+        <v>29.36810542893682</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.125</v>
+        <v>27.4861094016698</v>
       </c>
       <c r="C11" t="n">
-        <v>30.375</v>
+        <v>29.38025091686207</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.125</v>
+        <v>27.48344445643193</v>
       </c>
       <c r="C12" t="n">
-        <v>30.390625</v>
+        <v>29.39501990994651</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20.234375</v>
+        <v>19.67075904166656</v>
       </c>
       <c r="C2" t="n">
-        <v>25.953125</v>
+        <v>25.69726061274941</v>
       </c>
     </row>
     <row r="3">
@@ -633,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.1875</v>
+        <v>19.6396086501729</v>
       </c>
       <c r="C3" t="n">
-        <v>25.9375</v>
+        <v>25.67420458294321</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.21875</v>
+        <v>19.66471350038858</v>
       </c>
       <c r="C4" t="n">
-        <v>25.984375</v>
+        <v>25.72600560990867</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.234375</v>
+        <v>19.67663969080323</v>
       </c>
       <c r="C5" t="n">
-        <v>25.96875</v>
+        <v>25.70926624709069</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.234375</v>
+        <v>19.67388960355402</v>
       </c>
       <c r="C6" t="n">
-        <v>25.96875</v>
+        <v>25.70567620366846</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.21875</v>
+        <v>19.64877050770563</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>25.72126960805845</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.234375</v>
+        <v>19.66652435848939</v>
       </c>
       <c r="C8" t="n">
-        <v>25.984375</v>
+        <v>25.71924214518252</v>
       </c>
     </row>
     <row r="9">
@@ -699,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.21875</v>
+        <v>19.68022021917821</v>
       </c>
       <c r="C9" t="n">
-        <v>25.96875</v>
+        <v>25.70413228440161</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.21875</v>
+        <v>19.66858165866899</v>
       </c>
       <c r="C10" t="n">
-        <v>25.984375</v>
+        <v>25.72591061658974</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.21875</v>
+        <v>19.65677417310814</v>
       </c>
       <c r="C11" t="n">
-        <v>25.984375</v>
+        <v>25.71339148473685</v>
       </c>
     </row>
     <row r="12">
@@ -734,10 +735,169 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.21875</v>
+        <v>19.66464814037356</v>
       </c>
       <c r="C12" t="n">
-        <v>25.96875</v>
+        <v>25.70963593953296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Noisy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NLM-LBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.57963962169821</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21.0298455206133</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.59158282359429</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20.9859510076853</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.57148213461347</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.03804352971977</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.57091108084198</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21.02805087526399</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.59786508174927</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21.02042117731074</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.57319846358899</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21.08432407723135</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.57499858504113</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.046737724533</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.57689288139636</v>
+      </c>
+      <c r="C9" t="n">
+        <v>21.02508335977205</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.59660533161504</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.98853973205244</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.56025688804831</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.98658781864879</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.57934328921871</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21.02335848228307</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C024_120.xlsx
+++ b/Python/resultados/HW_C024_120.xlsx
@@ -461,112 +461,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>27.47287206360598</v>
+        <v>27.45103973375281</v>
       </c>
       <c r="C2" t="n">
-        <v>29.39034561146602</v>
+        <v>28.99995409239356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.48607003812207</v>
+        <v>27.47001208672447</v>
       </c>
       <c r="C3" t="n">
-        <v>29.40452408891105</v>
+        <v>28.98120564569585</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27.46750977065397</v>
+        <v>27.4514745931836</v>
       </c>
       <c r="C4" t="n">
-        <v>29.39144744359502</v>
+        <v>28.98390008507995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.47534051550214</v>
+        <v>27.45987433437825</v>
       </c>
       <c r="C5" t="n">
-        <v>29.4204382957688</v>
+        <v>28.98435864161655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>27.50380778484597</v>
+        <v>27.46209955133791</v>
       </c>
       <c r="C6" t="n">
-        <v>29.38851878481415</v>
+        <v>28.96842979515579</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.49199222875973</v>
+        <v>27.45186209844839</v>
       </c>
       <c r="C7" t="n">
-        <v>29.38716450881176</v>
+        <v>28.98064374799339</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.48167112512586</v>
+        <v>27.45331013859491</v>
       </c>
       <c r="C8" t="n">
-        <v>29.4073266152364</v>
+        <v>28.97810287684981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.49890340264041</v>
+        <v>27.46968888338561</v>
       </c>
       <c r="C9" t="n">
-        <v>29.41207740506301</v>
+        <v>28.98981616882067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.47016823339331</v>
+        <v>27.46596940576997</v>
       </c>
       <c r="C10" t="n">
-        <v>29.36810542893682</v>
+        <v>28.97574312175779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.4861094016698</v>
+        <v>27.46402022489861</v>
       </c>
       <c r="C11" t="n">
-        <v>29.38025091686207</v>
+        <v>28.98210435170081</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.48344445643193</v>
+        <v>27.45993510504745</v>
       </c>
       <c r="C12" t="n">
-        <v>29.39501990994651</v>
+        <v>28.98242585270642</v>
       </c>
     </row>
   </sheetData>
@@ -620,112 +620,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.67075904166656</v>
+        <v>19.64866192695948</v>
       </c>
       <c r="C2" t="n">
-        <v>25.69726061274941</v>
+        <v>25.56633709262722</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.6396086501729</v>
+        <v>19.64325667498629</v>
       </c>
       <c r="C3" t="n">
-        <v>25.67420458294321</v>
+        <v>25.53873280668903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.66471350038858</v>
+        <v>19.65557126468072</v>
       </c>
       <c r="C4" t="n">
-        <v>25.72600560990867</v>
+        <v>25.6026981461732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.67663969080323</v>
+        <v>19.65489040634082</v>
       </c>
       <c r="C5" t="n">
-        <v>25.70926624709069</v>
+        <v>25.54922003685539</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.67388960355402</v>
+        <v>19.64757837367189</v>
       </c>
       <c r="C6" t="n">
-        <v>25.70567620366846</v>
+        <v>25.53499126319608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.64877050770563</v>
+        <v>19.64433111774049</v>
       </c>
       <c r="C7" t="n">
-        <v>25.72126960805845</v>
+        <v>25.56644980792897</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.66652435848939</v>
+        <v>19.65509330317094</v>
       </c>
       <c r="C8" t="n">
-        <v>25.71924214518252</v>
+        <v>25.53600006479947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.68022021917821</v>
+        <v>19.65480343911532</v>
       </c>
       <c r="C9" t="n">
-        <v>25.70413228440161</v>
+        <v>25.54161828237438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.66858165866899</v>
+        <v>19.64498065119335</v>
       </c>
       <c r="C10" t="n">
-        <v>25.72591061658974</v>
+        <v>25.51722175269063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.65677417310814</v>
+        <v>19.64929363825734</v>
       </c>
       <c r="C11" t="n">
-        <v>25.71339148473685</v>
+        <v>25.55376956803781</v>
       </c>
     </row>
     <row r="12">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.66464814037356</v>
+        <v>19.64984607961166</v>
       </c>
       <c r="C12" t="n">
-        <v>25.70963593953296</v>
+        <v>25.55070388213722</v>
       </c>
     </row>
   </sheetData>
@@ -779,112 +779,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.57963962169821</v>
+        <v>14.47904939829139</v>
       </c>
       <c r="C2" t="n">
-        <v>21.0298455206133</v>
+        <v>20.92379087772777</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.59158282359429</v>
+        <v>14.49210127248127</v>
       </c>
       <c r="C3" t="n">
-        <v>20.9859510076853</v>
+        <v>20.89577573656967</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.57148213461347</v>
+        <v>14.46984950534335</v>
       </c>
       <c r="C4" t="n">
-        <v>21.03804352971977</v>
+        <v>20.89497555576769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.57091108084198</v>
+        <v>14.49322492543467</v>
       </c>
       <c r="C5" t="n">
-        <v>21.02805087526399</v>
+        <v>20.92430316553884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.59786508174927</v>
+        <v>14.47744974752012</v>
       </c>
       <c r="C6" t="n">
-        <v>21.02042117731074</v>
+        <v>20.94186143709757</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.57319846358899</v>
+        <v>14.46620166359357</v>
       </c>
       <c r="C7" t="n">
-        <v>21.08432407723135</v>
+        <v>20.88580341287859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.57499858504113</v>
+        <v>14.4569175079183</v>
       </c>
       <c r="C8" t="n">
-        <v>21.046737724533</v>
+        <v>20.88379751100841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.57689288139636</v>
+        <v>14.46458970736431</v>
       </c>
       <c r="C9" t="n">
-        <v>21.02508335977205</v>
+        <v>20.86756009837554</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.59660533161504</v>
+        <v>14.47102196411167</v>
       </c>
       <c r="C10" t="n">
-        <v>20.98853973205244</v>
+        <v>20.94703556754425</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.56025688804831</v>
+        <v>14.46574477025677</v>
       </c>
       <c r="C11" t="n">
-        <v>20.98658781864879</v>
+        <v>20.88756734196802</v>
       </c>
     </row>
     <row r="12">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.57934328921871</v>
+        <v>14.47361504623154</v>
       </c>
       <c r="C12" t="n">
-        <v>21.02335848228307</v>
+        <v>20.90524707044764</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C024_120.xlsx
+++ b/Python/resultados/HW_C024_120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +474,9 @@
       <c r="C2" t="n">
         <v>28.99995409239356</v>
       </c>
+      <c r="D2" t="n">
+        <v>28.78756456801334</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,6 +488,9 @@
       <c r="C3" t="n">
         <v>28.98120564569585</v>
       </c>
+      <c r="D3" t="n">
+        <v>28.78087258264985</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -491,6 +502,9 @@
       <c r="C4" t="n">
         <v>28.98390008507995</v>
       </c>
+      <c r="D4" t="n">
+        <v>28.779602198104</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +516,9 @@
       <c r="C5" t="n">
         <v>28.98435864161655</v>
       </c>
+      <c r="D5" t="n">
+        <v>28.77668178875089</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -513,6 +530,9 @@
       <c r="C6" t="n">
         <v>28.96842979515579</v>
       </c>
+      <c r="D6" t="n">
+        <v>28.77025419392418</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -524,6 +544,9 @@
       <c r="C7" t="n">
         <v>28.98064374799339</v>
       </c>
+      <c r="D7" t="n">
+        <v>28.77322519227207</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>28.97810287684981</v>
       </c>
+      <c r="D8" t="n">
+        <v>28.78579969874675</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>28.98981616882067</v>
       </c>
+      <c r="D9" t="n">
+        <v>28.78462828343715</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -557,6 +586,9 @@
       <c r="C10" t="n">
         <v>28.97574312175779</v>
       </c>
+      <c r="D10" t="n">
+        <v>28.76702644694733</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -568,6 +600,9 @@
       <c r="C11" t="n">
         <v>28.98210435170081</v>
       </c>
+      <c r="D11" t="n">
+        <v>28.77835154923045</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +615,9 @@
       </c>
       <c r="C12" t="n">
         <v>28.98242585270642</v>
+      </c>
+      <c r="D12" t="n">
+        <v>28.7784006502076</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +655,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +671,9 @@
       <c r="C2" t="n">
         <v>25.56633709262722</v>
       </c>
+      <c r="D2" t="n">
+        <v>24.58175964600699</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,6 +685,9 @@
       <c r="C3" t="n">
         <v>25.53873280668903</v>
       </c>
+      <c r="D3" t="n">
+        <v>24.56224640590096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -650,6 +699,9 @@
       <c r="C4" t="n">
         <v>25.6026981461732</v>
       </c>
+      <c r="D4" t="n">
+        <v>24.60385279501161</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -661,6 +713,9 @@
       <c r="C5" t="n">
         <v>25.54922003685539</v>
       </c>
+      <c r="D5" t="n">
+        <v>24.57981615517106</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,6 +727,9 @@
       <c r="C6" t="n">
         <v>25.53499126319608</v>
       </c>
+      <c r="D6" t="n">
+        <v>24.55502283392011</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -683,6 +741,9 @@
       <c r="C7" t="n">
         <v>25.56644980792897</v>
       </c>
+      <c r="D7" t="n">
+        <v>24.56082759889119</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -694,6 +755,9 @@
       <c r="C8" t="n">
         <v>25.53600006479947</v>
       </c>
+      <c r="D8" t="n">
+        <v>24.54665071842748</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -705,6 +769,9 @@
       <c r="C9" t="n">
         <v>25.54161828237438</v>
       </c>
+      <c r="D9" t="n">
+        <v>24.54842736337062</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -716,6 +783,9 @@
       <c r="C10" t="n">
         <v>25.51722175269063</v>
       </c>
+      <c r="D10" t="n">
+        <v>24.52184132476219</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -727,6 +797,9 @@
       <c r="C11" t="n">
         <v>25.55376956803781</v>
       </c>
+      <c r="D11" t="n">
+        <v>24.57188541182916</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,6 +812,9 @@
       </c>
       <c r="C12" t="n">
         <v>25.55070388213722</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24.56323302532914</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +852,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -787,6 +868,9 @@
       <c r="C2" t="n">
         <v>20.92379087772777</v>
       </c>
+      <c r="D2" t="n">
+        <v>19.68296904438973</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +882,9 @@
       <c r="C3" t="n">
         <v>20.89577573656967</v>
       </c>
+      <c r="D3" t="n">
+        <v>19.65484861928525</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -809,6 +896,9 @@
       <c r="C4" t="n">
         <v>20.89497555576769</v>
       </c>
+      <c r="D4" t="n">
+        <v>19.64448620523226</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -820,6 +910,9 @@
       <c r="C5" t="n">
         <v>20.92430316553884</v>
       </c>
+      <c r="D5" t="n">
+        <v>19.67342170143912</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -831,6 +924,9 @@
       <c r="C6" t="n">
         <v>20.94186143709757</v>
       </c>
+      <c r="D6" t="n">
+        <v>19.68400856056981</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -842,6 +938,9 @@
       <c r="C7" t="n">
         <v>20.88580341287859</v>
       </c>
+      <c r="D7" t="n">
+        <v>19.65846562171457</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -853,6 +952,9 @@
       <c r="C8" t="n">
         <v>20.88379751100841</v>
       </c>
+      <c r="D8" t="n">
+        <v>19.63979342496105</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -864,6 +966,9 @@
       <c r="C9" t="n">
         <v>20.86756009837554</v>
       </c>
+      <c r="D9" t="n">
+        <v>19.63497998037374</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -875,6 +980,9 @@
       <c r="C10" t="n">
         <v>20.94703556754425</v>
       </c>
+      <c r="D10" t="n">
+        <v>19.68966393755383</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -886,6 +994,9 @@
       <c r="C11" t="n">
         <v>20.88756734196802</v>
       </c>
+      <c r="D11" t="n">
+        <v>19.64606231401388</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,6 +1009,9 @@
       </c>
       <c r="C12" t="n">
         <v>20.90524707044764</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19.66086994095333</v>
       </c>
     </row>
   </sheetData>
